--- a/Homework/JulyBayesHW.xlsx
+++ b/Homework/JulyBayesHW.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Documents\GitHub\Stats using Excel\stats-primer\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7510ADE-3317-4892-B8E4-E3630FD68CF6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"> A company has a plant in Houston and Dallas. 70% of the employees work in Houston and 30% work in Dallas. Each year 3% of the Houston employees are involved in an accident and 5% of the Dallas employees are involved in an accident. If you randomly choose an employee who had an accident last year, what is the chance they work in Houston?</t>
   </si>
@@ -75,11 +81,29 @@
       <t>Assume 1 in every 1000 people are liars. Also suppose a lie detector test is 98% accurate. That is, if a person is lying there is a 98% chance the test will indicate that they are lying. Also, if the person is not lying, there is a 98% chance the test will indicate the person is not lying, If the lie detector test indicates the person is lying, what is the chance the person is lying?</t>
     </r>
   </si>
+  <si>
+    <t>999/1000 not lie, .02 detected as lying</t>
+  </si>
+  <si>
+    <t>1/1000 lie, .98 detected as lying</t>
+  </si>
+  <si>
+    <t>85% cabs are blue, 80% detected correctly</t>
+  </si>
+  <si>
+    <t>15% cabs are green, 80% detected correctly</t>
+  </si>
+  <si>
+    <t>prob of a random cab is green</t>
+  </si>
+  <si>
+    <t>prob of the cab is actually green</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -439,28 +463,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="48.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="48.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="48.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="1:7">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="101.5">
+    <row r="4" spans="1:7" ht="105">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -469,7 +493,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="3:7" ht="81.5">
+    <row r="5" spans="1:7" ht="84.75">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -477,12 +501,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="78.75" customHeight="1">
+    <row r="6" spans="1:7" ht="78.75" customHeight="1">
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(1/1000)*(0.98)+(999/1000)*(0.02)</f>
+        <v>2.0959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f>((1/1000)*0.98)/(D9)</f>
+        <v>4.6755725190839696E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="1">
+        <f>0.85*0.2+0.15*0.8</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="1">
+        <f>(0.15*0.8)/D15</f>
+        <v>0.4137931034482758</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
